--- a/fermentation_insights/TRY_results/a_spearman_general_takeaways.xlsx
+++ b/fermentation_insights/TRY_results/a_spearman_general_takeaways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>product</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,46 +507,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.1117026397026397</v>
+        <v>0.272984432984433</v>
       </c>
       <c r="E2">
-        <v>0.01723168123168123</v>
+        <v>0.01837317037317037</v>
       </c>
       <c r="F2">
-        <v>0.05593050793050793</v>
+        <v>-0.003687771687771688</v>
       </c>
       <c r="G2">
-        <v>-0.1051430371430371</v>
+        <v>-0.111951447951448</v>
       </c>
       <c r="H2">
-        <v>-0.05186810786810787</v>
+        <v>-0.03254758454758454</v>
       </c>
       <c r="I2">
-        <v>-0.0724040404040404</v>
+        <v>-0.08502158502158502</v>
       </c>
       <c r="J2">
-        <v>-0.1913765153765154</v>
+        <v>-0.1184824424824425</v>
       </c>
       <c r="K2">
-        <v>-0.05858000258000258</v>
+        <v>-0.06111574911574912</v>
       </c>
       <c r="L2">
-        <v>0.005066345066345066</v>
+        <v>0.002632910632910633</v>
       </c>
       <c r="M2">
-        <v>0.0126030846030846</v>
+        <v>0.006684834684834685</v>
       </c>
       <c r="N2">
-        <v>-0.0262946902946903</v>
+        <v>-0.05136515136515137</v>
       </c>
       <c r="O2">
-        <v>-0.05386134586134586</v>
+        <v>-0.05188560388560388</v>
       </c>
       <c r="P2">
-        <v>-0.01684709284709285</v>
+        <v>-0.03433699033699034</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,46 +557,46 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.2075421395421395</v>
+        <v>0.2893590253590254</v>
       </c>
       <c r="E3">
-        <v>-0.05523670323670324</v>
+        <v>-0.02511735711735712</v>
       </c>
       <c r="F3">
-        <v>0.133041289041289</v>
+        <v>0.2199348399348399</v>
       </c>
       <c r="G3">
-        <v>0.0203002163002163</v>
+        <v>-0.1112889872889873</v>
       </c>
       <c r="H3">
-        <v>0.01983850383850384</v>
+        <v>0.01034452634452634</v>
       </c>
       <c r="I3">
-        <v>-0.05980921180921181</v>
+        <v>-0.05526857526857527</v>
       </c>
       <c r="J3">
-        <v>-0.1858268698268698</v>
+        <v>-0.09892975492975493</v>
       </c>
       <c r="K3">
-        <v>-0.03738618138618138</v>
+        <v>-0.06897074097074098</v>
       </c>
       <c r="L3">
-        <v>0.02371251571251571</v>
+        <v>0.01579122379122379</v>
       </c>
       <c r="M3">
-        <v>-0.1442766722766723</v>
+        <v>-0.05171833571833572</v>
       </c>
       <c r="N3">
-        <v>-0.06998916998916999</v>
+        <v>-0.04681631881631881</v>
       </c>
       <c r="O3">
-        <v>0.0901010941010941</v>
+        <v>-0.01630999630999631</v>
       </c>
       <c r="P3">
-        <v>0.07122821922821923</v>
+        <v>0.06279007479007478</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -592,46 +607,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.01444107844107844</v>
+        <v>0.104996648996649</v>
       </c>
       <c r="E4">
-        <v>0.00599034599034599</v>
+        <v>-0.003595839595839596</v>
       </c>
       <c r="F4">
-        <v>0.1531396531396531</v>
+        <v>0.1952686112686113</v>
       </c>
       <c r="G4">
-        <v>-0.3588213348213348</v>
+        <v>-0.4416126696126696</v>
       </c>
       <c r="H4">
-        <v>0.008572412572412572</v>
+        <v>0.004688824688824689</v>
       </c>
       <c r="I4">
-        <v>-0.04109510909510909</v>
+        <v>-0.01655848055848056</v>
       </c>
       <c r="J4">
-        <v>-0.2509386709386709</v>
+        <v>-0.08429115629115629</v>
       </c>
       <c r="K4">
-        <v>-0.06602413802413802</v>
+        <v>-0.06399102399102399</v>
       </c>
       <c r="L4">
-        <v>0.02489425289425289</v>
+        <v>0.02473743673743674</v>
       </c>
       <c r="M4">
-        <v>-0.002041622041622042</v>
+        <v>-9.716409716409717E-05</v>
       </c>
       <c r="N4">
-        <v>-0.03408627408627408</v>
+        <v>-0.01763645363645364</v>
       </c>
       <c r="O4">
-        <v>-0.01845756645756646</v>
+        <v>-0.03991313191313191</v>
       </c>
       <c r="P4">
-        <v>0.04195324195324195</v>
+        <v>0.04281689481689482</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -642,46 +657,1046 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0.1279257679257679</v>
+      </c>
+      <c r="E5">
+        <v>0.02438125238125238</v>
+      </c>
+      <c r="F5">
+        <v>0.2015811695811696</v>
+      </c>
+      <c r="G5">
+        <v>-0.09717056517056517</v>
+      </c>
+      <c r="H5">
+        <v>0.00453936453936454</v>
+      </c>
+      <c r="I5">
+        <v>-0.05826181026181027</v>
+      </c>
+      <c r="J5">
+        <v>-0.07492866292866293</v>
+      </c>
+      <c r="K5">
+        <v>-0.1036256716256716</v>
+      </c>
+      <c r="L5">
+        <v>0.02045274845274845</v>
+      </c>
+      <c r="M5">
+        <v>-0.01537098337098337</v>
+      </c>
+      <c r="N5">
+        <v>-0.01667027267027267</v>
+      </c>
+      <c r="O5">
+        <v>-0.005376257376257377</v>
+      </c>
+      <c r="P5">
+        <v>0.0302980262980263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0.09737280137280137</v>
+      </c>
+      <c r="E6">
+        <v>-0.01341199341199341</v>
+      </c>
+      <c r="F6">
+        <v>-0.0439031239031239</v>
+      </c>
+      <c r="G6">
+        <v>-0.1788398508398509</v>
+      </c>
+      <c r="H6">
+        <v>-0.09272753672753672</v>
+      </c>
+      <c r="I6">
+        <v>-0.05357962157962158</v>
+      </c>
+      <c r="J6">
+        <v>0.0150991470991471</v>
+      </c>
+      <c r="K6">
+        <v>0.03953124353124353</v>
+      </c>
+      <c r="L6">
+        <v>-0.02176451776451777</v>
+      </c>
+      <c r="M6">
+        <v>0.01481886281886282</v>
+      </c>
+      <c r="N6">
+        <v>0.0324950004950005</v>
+      </c>
+      <c r="O6">
+        <v>-0.01803305403305403</v>
+      </c>
+      <c r="P6">
+        <v>0.01044916644916645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.08352778752778753</v>
+      </c>
+      <c r="E7">
+        <v>-0.04015921615921616</v>
+      </c>
+      <c r="F7">
+        <v>0.08593363393363393</v>
+      </c>
+      <c r="G7">
+        <v>-0.1406216246216246</v>
+      </c>
+      <c r="H7">
+        <v>-0.07606589206589207</v>
+      </c>
+      <c r="I7">
+        <v>-0.0387006267006267</v>
+      </c>
+      <c r="J7">
+        <v>0.00344025944025944</v>
+      </c>
+      <c r="K7">
+        <v>0.02757159957159957</v>
+      </c>
+      <c r="L7">
+        <v>-0.01097847497847498</v>
+      </c>
+      <c r="M7">
+        <v>0.01399708999709</v>
+      </c>
+      <c r="N7">
+        <v>0.01206930006930007</v>
+      </c>
+      <c r="O7">
+        <v>-0.01307888507888508</v>
+      </c>
+      <c r="P7">
+        <v>0.02106684906684907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>-0.002238770238770239</v>
+      </c>
+      <c r="E8">
+        <v>-0.04277194277194277</v>
+      </c>
+      <c r="F8">
+        <v>0.01837423837423837</v>
+      </c>
+      <c r="G8">
+        <v>-0.5755378315378316</v>
+      </c>
+      <c r="H8">
+        <v>-0.0516928476928477</v>
+      </c>
+      <c r="I8">
+        <v>0.008927960927960927</v>
+      </c>
+      <c r="J8">
+        <v>0.02140572940572941</v>
+      </c>
+      <c r="K8">
+        <v>-0.01485903885903886</v>
+      </c>
+      <c r="L8">
+        <v>-0.0220998100998101</v>
+      </c>
+      <c r="M8">
+        <v>0.008600564600564601</v>
+      </c>
+      <c r="N8">
+        <v>0.01178665178665179</v>
+      </c>
+      <c r="O8">
+        <v>-0.02820672420672421</v>
+      </c>
+      <c r="P8">
+        <v>-0.02632981432981433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.0233029073029073</v>
+      </c>
+      <c r="E9">
+        <v>-0.03934035934035934</v>
+      </c>
+      <c r="F9">
+        <v>0.06372848772848773</v>
+      </c>
+      <c r="G9">
+        <v>-0.1694185934185934</v>
+      </c>
+      <c r="H9">
+        <v>-0.07535895935895937</v>
+      </c>
+      <c r="I9">
+        <v>-0.02854356454356454</v>
+      </c>
+      <c r="J9">
+        <v>0.009284001284001284</v>
+      </c>
+      <c r="K9">
+        <v>0.03672436872436873</v>
+      </c>
+      <c r="L9">
+        <v>-0.01101790701790702</v>
+      </c>
+      <c r="M9">
+        <v>0.02581756981756982</v>
+      </c>
+      <c r="N9">
+        <v>-0.001375585375585376</v>
+      </c>
+      <c r="O9">
+        <v>-0.03534369534369534</v>
+      </c>
+      <c r="P9">
+        <v>0.0003088083088083088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.1613467013467013</v>
+      </c>
+      <c r="E10">
+        <v>0.004316632316632317</v>
+      </c>
+      <c r="F10">
+        <v>0.08944409344409344</v>
+      </c>
+      <c r="G10">
+        <v>-0.3805181845181845</v>
+      </c>
+      <c r="H10">
+        <v>-0.1487709047709048</v>
+      </c>
+      <c r="I10">
+        <v>-0.04945566145566146</v>
+      </c>
+      <c r="J10">
+        <v>0.01707785307785308</v>
+      </c>
+      <c r="K10">
+        <v>0.02512668112668113</v>
+      </c>
+      <c r="L10">
+        <v>-0.02310760710760711</v>
+      </c>
+      <c r="M10">
+        <v>-0.03708178908178908</v>
+      </c>
+      <c r="N10">
+        <v>0.00942034542034542</v>
+      </c>
+      <c r="O10">
+        <v>0.002923934923934924</v>
+      </c>
+      <c r="P10">
+        <v>0.1777824337824338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>-0.1473119073119073</v>
+      </c>
+      <c r="E11">
+        <v>0.05288136488136488</v>
+      </c>
+      <c r="F11">
+        <v>0.04276086676086676</v>
+      </c>
+      <c r="G11">
+        <v>-0.3253767853767854</v>
+      </c>
+      <c r="H11">
+        <v>-0.3425627945627945</v>
+      </c>
+      <c r="I11">
+        <v>-0.0298046338046338</v>
+      </c>
+      <c r="J11">
+        <v>0.003096351096351096</v>
+      </c>
+      <c r="K11">
+        <v>0.12004314004314</v>
+      </c>
+      <c r="L11">
+        <v>-0.06580674580674581</v>
+      </c>
+      <c r="M11">
+        <v>0.01410951810951811</v>
+      </c>
+      <c r="N11">
+        <v>0.008086148086148087</v>
+      </c>
+      <c r="O11">
+        <v>-0.06250143850143851</v>
+      </c>
+      <c r="P11">
+        <v>0.3456549816549817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>-0.1363844323844324</v>
+      </c>
+      <c r="E12">
+        <v>0.007470379470379471</v>
+      </c>
+      <c r="F12">
+        <v>0.06488390888390888</v>
+      </c>
+      <c r="G12">
+        <v>-0.8194242274242274</v>
+      </c>
+      <c r="H12">
+        <v>-0.1306090066090066</v>
+      </c>
+      <c r="I12">
+        <v>0.008541512541512541</v>
+      </c>
+      <c r="J12">
+        <v>-0.03351710151710151</v>
+      </c>
+      <c r="K12">
+        <v>0.05593230793230793</v>
+      </c>
+      <c r="L12">
+        <v>-0.05773677373677374</v>
+      </c>
+      <c r="M12">
+        <v>-0.0321987561987562</v>
+      </c>
+      <c r="N12">
+        <v>0.007022971022971023</v>
+      </c>
+      <c r="O12">
+        <v>-0.03473567873567873</v>
+      </c>
+      <c r="P12">
+        <v>0.07662408462408463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>-0.05068697068697069</v>
+      </c>
+      <c r="E13">
+        <v>0.03302747702747703</v>
+      </c>
+      <c r="F13">
+        <v>0.06126499326499327</v>
+      </c>
+      <c r="G13">
+        <v>-0.3216823416823417</v>
+      </c>
+      <c r="H13">
+        <v>-0.331990111990112</v>
+      </c>
+      <c r="I13">
+        <v>-0.02029460029460029</v>
+      </c>
+      <c r="J13">
+        <v>0.004591000591000591</v>
+      </c>
+      <c r="K13">
+        <v>0.1362072042072042</v>
+      </c>
+      <c r="L13">
+        <v>-0.07524233124233125</v>
+      </c>
+      <c r="M13">
+        <v>0.01102216702216702</v>
+      </c>
+      <c r="N13">
+        <v>0.002302418302418302</v>
+      </c>
+      <c r="O13">
+        <v>0.02198618198618199</v>
+      </c>
+      <c r="P13">
+        <v>0.3823426783426783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.1010936450936451</v>
+      </c>
+      <c r="E14">
+        <v>0.02966723366723367</v>
+      </c>
+      <c r="F14">
+        <v>0.0420937620937621</v>
+      </c>
+      <c r="G14">
+        <v>-0.2532093732093732</v>
+      </c>
+      <c r="H14">
+        <v>-0.1336360936360936</v>
+      </c>
+      <c r="I14">
+        <v>0.00800963600963601</v>
+      </c>
+      <c r="J14">
+        <v>-0.01035761835761836</v>
+      </c>
+      <c r="K14">
+        <v>0.008935376935376936</v>
+      </c>
+      <c r="L14">
+        <v>-0.06439093639093639</v>
+      </c>
+      <c r="M14">
+        <v>-0.02195847395847396</v>
+      </c>
+      <c r="N14">
+        <v>-0.0001427401427401427</v>
+      </c>
+      <c r="O14">
+        <v>0.03507722307722308</v>
+      </c>
+      <c r="P14">
+        <v>0.06613489813489813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0.01997375597375597</v>
+      </c>
+      <c r="E15">
+        <v>0.03333159333159333</v>
+      </c>
+      <c r="F15">
+        <v>0.0372973092973093</v>
+      </c>
+      <c r="G15">
+        <v>-0.2045396165396166</v>
+      </c>
+      <c r="H15">
+        <v>-0.2939477699477699</v>
+      </c>
+      <c r="I15">
+        <v>0.003554079554079554</v>
+      </c>
+      <c r="J15">
+        <v>0.01676614076614077</v>
+      </c>
+      <c r="K15">
+        <v>0.09741729741729742</v>
+      </c>
+      <c r="L15">
+        <v>-0.05906995106995107</v>
+      </c>
+      <c r="M15">
+        <v>-0.01829050229050229</v>
+      </c>
+      <c r="N15">
+        <v>-0.007524475524475525</v>
+      </c>
+      <c r="O15">
+        <v>0.07546172746172747</v>
+      </c>
+      <c r="P15">
+        <v>0.2742761742761743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>-0.0688983088983089</v>
+      </c>
+      <c r="E16">
+        <v>-0.01658168858168858</v>
+      </c>
+      <c r="F16">
+        <v>0.1138854058854059</v>
+      </c>
+      <c r="G16">
+        <v>-0.7902332982332982</v>
+      </c>
+      <c r="H16">
+        <v>-0.07824421824421825</v>
+      </c>
+      <c r="I16">
+        <v>-0.02141172941172941</v>
+      </c>
+      <c r="J16">
+        <v>0.02944877344877345</v>
+      </c>
+      <c r="K16">
+        <v>0.03321034521034521</v>
+      </c>
+      <c r="L16">
+        <v>-0.06221210621210621</v>
+      </c>
+      <c r="M16">
+        <v>-0.03868625068625069</v>
+      </c>
+      <c r="N16">
+        <v>0.008635736635736635</v>
+      </c>
+      <c r="O16">
+        <v>-0.01861932661932662</v>
+      </c>
+      <c r="P16">
+        <v>0.1496913776913777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>0.03160725160725161</v>
+      </c>
+      <c r="E17">
+        <v>0.02525148125148125</v>
+      </c>
+      <c r="F17">
+        <v>0.05173928773928774</v>
+      </c>
+      <c r="G17">
+        <v>-0.2028796068796069</v>
+      </c>
+      <c r="H17">
+        <v>-0.2760850440850441</v>
+      </c>
+      <c r="I17">
+        <v>0.001968649968649969</v>
+      </c>
+      <c r="J17">
+        <v>0.01194381594381594</v>
+      </c>
+      <c r="K17">
+        <v>0.101960957960958</v>
+      </c>
+      <c r="L17">
+        <v>-0.05961068361068361</v>
+      </c>
+      <c r="M17">
+        <v>-0.0144011904011904</v>
+      </c>
+      <c r="N17">
+        <v>-0.008394560394560395</v>
+      </c>
+      <c r="O17">
+        <v>0.1087089967089967</v>
+      </c>
+      <c r="P17">
+        <v>0.2868278868278868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0.03532291132291132</v>
-      </c>
-      <c r="E5">
-        <v>0.03148307548307548</v>
-      </c>
-      <c r="F5">
-        <v>0.1461823101823102</v>
-      </c>
-      <c r="G5">
-        <v>-0.07991827991827992</v>
-      </c>
-      <c r="H5">
-        <v>0.003677847677847678</v>
-      </c>
-      <c r="I5">
-        <v>-0.07578229578229578</v>
-      </c>
-      <c r="J5">
-        <v>-0.1967930207930208</v>
-      </c>
-      <c r="K5">
-        <v>-0.1045898725898726</v>
-      </c>
-      <c r="L5">
-        <v>0.01444176244176244</v>
-      </c>
-      <c r="M5">
-        <v>-0.0295969615969616</v>
-      </c>
-      <c r="N5">
-        <v>-0.02844509244509244</v>
-      </c>
-      <c r="O5">
-        <v>0.01143586743586744</v>
-      </c>
-      <c r="P5">
-        <v>0.02923324123324123</v>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0.1995018915018915</v>
+      </c>
+      <c r="E18">
+        <v>0.04534313734313734</v>
+      </c>
+      <c r="F18">
+        <v>0.09871975471975472</v>
+      </c>
+      <c r="G18">
+        <v>-0.3626589746589747</v>
+      </c>
+      <c r="H18">
+        <v>-0.01663072063072063</v>
+      </c>
+      <c r="I18">
+        <v>0.01716233316233316</v>
+      </c>
+      <c r="J18">
+        <v>-0.03662451662451662</v>
+      </c>
+      <c r="K18">
+        <v>0.008166140166140166</v>
+      </c>
+      <c r="L18">
+        <v>-0.06087613287613287</v>
+      </c>
+      <c r="M18">
+        <v>0.02038493638493638</v>
+      </c>
+      <c r="N18">
+        <v>0.007856095856095856</v>
+      </c>
+      <c r="O18">
+        <v>-0.06453072453072453</v>
+      </c>
+      <c r="P18">
+        <v>0.08354276354276355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>-0.0684995364995365</v>
+      </c>
+      <c r="E19">
+        <v>0.09545726345726346</v>
+      </c>
+      <c r="F19">
+        <v>0.05806183006183006</v>
+      </c>
+      <c r="G19">
+        <v>-0.2877020037020037</v>
+      </c>
+      <c r="H19">
+        <v>-0.2435868155868156</v>
+      </c>
+      <c r="I19">
+        <v>-0.01665522465522466</v>
+      </c>
+      <c r="J19">
+        <v>0.02008307608307608</v>
+      </c>
+      <c r="K19">
+        <v>0.1148748668748669</v>
+      </c>
+      <c r="L19">
+        <v>-0.05812792612792613</v>
+      </c>
+      <c r="M19">
+        <v>0.0359004359004359</v>
+      </c>
+      <c r="N19">
+        <v>0.003247899247899248</v>
+      </c>
+      <c r="O19">
+        <v>-0.02366680766680767</v>
+      </c>
+      <c r="P19">
+        <v>0.3519466839466839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>-0.1094000534000534</v>
+      </c>
+      <c r="E20">
+        <v>0.008464448464448465</v>
+      </c>
+      <c r="F20">
+        <v>0.1501550221550222</v>
+      </c>
+      <c r="G20">
+        <v>-0.7931197451197451</v>
+      </c>
+      <c r="H20">
+        <v>-0.1171637251637252</v>
+      </c>
+      <c r="I20">
+        <v>0.01651266451266451</v>
+      </c>
+      <c r="J20">
+        <v>-0.0262988662988663</v>
+      </c>
+      <c r="K20">
+        <v>0.08195872595872596</v>
+      </c>
+      <c r="L20">
+        <v>-0.05433855033855034</v>
+      </c>
+      <c r="M20">
+        <v>-0.02440893640893641</v>
+      </c>
+      <c r="N20">
+        <v>0.006209358209358209</v>
+      </c>
+      <c r="O20">
+        <v>-0.02456252456252456</v>
+      </c>
+      <c r="P20">
+        <v>0.1644425364425365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>0.01453529053529054</v>
+      </c>
+      <c r="E21">
+        <v>0.05016925416925417</v>
+      </c>
+      <c r="F21">
+        <v>0.08734268734268734</v>
+      </c>
+      <c r="G21">
+        <v>-0.3112879072879073</v>
+      </c>
+      <c r="H21">
+        <v>-0.2901170421170421</v>
+      </c>
+      <c r="I21">
+        <v>-0.008012120012120013</v>
+      </c>
+      <c r="J21">
+        <v>-0.003620667620667621</v>
+      </c>
+      <c r="K21">
+        <v>0.1506655746655747</v>
+      </c>
+      <c r="L21">
+        <v>-0.05754275754275754</v>
+      </c>
+      <c r="M21">
+        <v>0.008318672318672319</v>
+      </c>
+      <c r="N21">
+        <v>0.011998535998536</v>
+      </c>
+      <c r="O21">
+        <v>0.02908836508836509</v>
+      </c>
+      <c r="P21">
+        <v>0.4292656652656653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0.1645711405711406</v>
+      </c>
+      <c r="E22">
+        <v>0.02788172788172788</v>
+      </c>
+      <c r="F22">
+        <v>0.088999360999361</v>
+      </c>
+      <c r="G22">
+        <v>-0.2683402963402963</v>
+      </c>
+      <c r="H22">
+        <v>-0.03370724170724171</v>
+      </c>
+      <c r="I22">
+        <v>0.02292673092673093</v>
+      </c>
+      <c r="J22">
+        <v>-0.01983701583701584</v>
+      </c>
+      <c r="K22">
+        <v>-0.0003233163233163233</v>
+      </c>
+      <c r="L22">
+        <v>-0.05992220392220392</v>
+      </c>
+      <c r="M22">
+        <v>-0.01855371055371055</v>
+      </c>
+      <c r="N22">
+        <v>0.007025371025371025</v>
+      </c>
+      <c r="O22">
+        <v>-0.01918167118167118</v>
+      </c>
+      <c r="P22">
+        <v>0.05901835101835102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0.01076105876105876</v>
+      </c>
+      <c r="E23">
+        <v>0.0703990783990784</v>
+      </c>
+      <c r="F23">
+        <v>0.05346131346131346</v>
+      </c>
+      <c r="G23">
+        <v>-0.2303812103812104</v>
+      </c>
+      <c r="H23">
+        <v>-0.2265362025362025</v>
+      </c>
+      <c r="I23">
+        <v>0.009921981921981921</v>
+      </c>
+      <c r="J23">
+        <v>0.01718454518454518</v>
+      </c>
+      <c r="K23">
+        <v>0.09906779106779107</v>
+      </c>
+      <c r="L23">
+        <v>-0.06271145071145071</v>
+      </c>
+      <c r="M23">
+        <v>-0.001743625743625744</v>
+      </c>
+      <c r="N23">
+        <v>0.00103999303999304</v>
+      </c>
+      <c r="O23">
+        <v>0.03118653118653119</v>
+      </c>
+      <c r="P23">
+        <v>0.3005994605994606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>-0.05099049899049899</v>
+      </c>
+      <c r="E24">
+        <v>0.01118468318468318</v>
+      </c>
+      <c r="F24">
+        <v>0.1553481113481114</v>
+      </c>
+      <c r="G24">
+        <v>-0.7582158502158503</v>
+      </c>
+      <c r="H24">
+        <v>-0.1206285606285606</v>
+      </c>
+      <c r="I24">
+        <v>0.02497312897312897</v>
+      </c>
+      <c r="J24">
+        <v>-0.03007967407967408</v>
+      </c>
+      <c r="K24">
+        <v>0.07688444888444888</v>
+      </c>
+      <c r="L24">
+        <v>-0.06692123492123492</v>
+      </c>
+      <c r="M24">
+        <v>-0.03978993978993979</v>
+      </c>
+      <c r="N24">
+        <v>0.008836832836832837</v>
+      </c>
+      <c r="O24">
+        <v>-0.007277119277119277</v>
+      </c>
+      <c r="P24">
+        <v>0.1468592428592429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0.06672784272784273</v>
+      </c>
+      <c r="E25">
+        <v>0.03313874113874114</v>
+      </c>
+      <c r="F25">
+        <v>0.07686290886290886</v>
+      </c>
+      <c r="G25">
+        <v>-0.2132438972438973</v>
+      </c>
+      <c r="H25">
+        <v>-0.2375872655872656</v>
+      </c>
+      <c r="I25">
+        <v>0.005315153315153315</v>
+      </c>
+      <c r="J25">
+        <v>0.008805764805764806</v>
+      </c>
+      <c r="K25">
+        <v>0.1156536796536796</v>
+      </c>
+      <c r="L25">
+        <v>-0.05926307926307926</v>
+      </c>
+      <c r="M25">
+        <v>-0.003463695463695464</v>
+      </c>
+      <c r="N25">
+        <v>-0.006411294411294411</v>
+      </c>
+      <c r="O25">
+        <v>0.08143498543498544</v>
+      </c>
+      <c r="P25">
+        <v>0.3205974805974806</v>
       </c>
     </row>
   </sheetData>
